--- a/문단파일.xlsx
+++ b/문단파일.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\Tisautory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\Tiautory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55147E5-CA4C-43A0-8561-9F5F51732F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB19162-451B-4ED6-9088-4AEC3217D87F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="1308" windowWidth="17280" windowHeight="11136" xr2:uid="{F55AB419-7DF6-4C6E-AAA7-E63672D9AC92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F55AB419-7DF6-4C6E-AAA7-E63672D9AC92}"/>
   </bookViews>
   <sheets>
     <sheet name="문단" sheetId="1" r:id="rId1"/>
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ACC312-0BDC-4624-A9B8-7BC82AB57F18}">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -728,349 +728,349 @@
     <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
         <v>59</v>
       </c>
     </row>
